--- a/biology/Médecine/Augustin_Penge_On'okoko/Augustin_Penge_On'okoko.xlsx
+++ b/biology/Médecine/Augustin_Penge_On'okoko/Augustin_Penge_On'okoko.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Augustin_Penge_On%27okoko</t>
+          <t>Augustin_Penge_On'okoko</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Augustin Penge On'okoko (Ompula, Lomela, République démocratique du Congo, 19 novembre 1942 - Afrique du Sud, 20 juin 2008) fut professeur de pharmacognosie et de chimie pharmaceutique organique à la faculté des sciences pharmaceutiques de l'université de Kinshasa.
 Après ses études de pharmacien à l’université de Kinshasa (1972), il obtint le diplôme de docteur en sciences pharmaceutiques à l’université libre de Bruxelles (1979). Il exerça tour à tour les fonctions suivantes à la faculté de pharmacie de l’université de Kinshasa : assistant (1972-1975) puis professeur (1979 à sa disparition), chef du département de chimie médicinale (1984 à 1997), et doyen de la faculté (2001 à 2005). En dehors de ses occupations académiques, il fut expert-consultant de l’Organisation mondiale de la santé (OMS), du Centre international des civilisations bantu (CICIBA) et de l’Agence de coopération culturelle et technique (ACCT) en matière de médecine traditionnelle et de pharmacopée. Il fut auteur et coauteur de nombreuses publications, dans le domaine de la chimie des substances naturelles, de la pharmacognosie et de l'ethnopharmacologie.
